--- a/xlsdocs/screenDefinition_cms.xlsx
+++ b/xlsdocs/screenDefinition_cms.xlsx
@@ -2638,9 +2638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2650,7 +2650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="171360"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2740,9 +2740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2752,7 +2752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="1371600"/>
-          <a:ext cx="6171480" cy="535320"/>
+          <a:ext cx="6171120" cy="534960"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2862,9 +2862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2874,7 +2874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="2572920"/>
-          <a:ext cx="6171480" cy="534240"/>
+          <a:ext cx="6171120" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2964,9 +2964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2976,7 +2976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="3773160"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -3046,9 +3046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3058,7 +3058,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="171360"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3111,9 +3111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>98</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3123,7 +3123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16550640" y="171360"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3225,7 +3225,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -3237,7 +3237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="442440"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3282,7 +3282,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -3294,7 +3294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="442440"/>
-          <a:ext cx="1173600" cy="360"/>
+          <a:ext cx="1173240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3339,9 +3339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3351,7 +3351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="1371600"/>
-          <a:ext cx="6171480" cy="535320"/>
+          <a:ext cx="6171120" cy="534960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3404,7 +3404,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -3416,7 +3416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="1641600"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3462,9 +3462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3474,7 +3474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="2572920"/>
-          <a:ext cx="6171480" cy="534240"/>
+          <a:ext cx="6171120" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3527,7 +3527,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -3539,7 +3539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="2841840"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3585,9 +3585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3597,7 +3597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="3773160"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3650,7 +3650,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -3662,7 +3662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="4042800"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3707,9 +3707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>98</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3719,7 +3719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16550640" y="3773160"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3801,7 +3801,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -3813,7 +3813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="4042800"/>
-          <a:ext cx="1173600" cy="360"/>
+          <a:ext cx="1173240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3858,9 +3858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3870,7 +3870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="6172200"/>
-          <a:ext cx="6171480" cy="535320"/>
+          <a:ext cx="6171120" cy="534960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3923,9 +3923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3935,7 +3935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="7373520"/>
-          <a:ext cx="6171480" cy="534240"/>
+          <a:ext cx="6171120" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3988,7 +3988,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -4000,7 +4000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="8843400"/>
-          <a:ext cx="1173600" cy="360"/>
+          <a:ext cx="1173240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4045,9 +4045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>55800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4057,7 +4057,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="17730000" y="2834640"/>
-          <a:ext cx="1175400" cy="1120680"/>
+          <a:ext cx="1175040" cy="1120320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4099,13 +4099,13 @@
       <xdr:col>77</xdr:col>
       <xdr:colOff>30240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>55800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4114,8 +4114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17730000" y="5236200"/>
-          <a:ext cx="1175400" cy="2322000"/>
+          <a:off x="17730000" y="5235480"/>
+          <a:ext cx="1175040" cy="2321640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4161,9 +4161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4173,7 +4173,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="8573760"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -4243,9 +4243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4255,7 +4255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="8573760"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4308,7 +4308,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -4320,7 +4320,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="8843400"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4365,9 +4365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>98</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4377,7 +4377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16550640" y="8573760"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4459,9 +4459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4471,7 +4471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="7913520"/>
-          <a:ext cx="10439280" cy="924480"/>
+          <a:ext cx="10438920" cy="924120"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -4506,9 +4506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4518,7 +4518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="7373520"/>
-          <a:ext cx="6171480" cy="534240"/>
+          <a:ext cx="6171120" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -4608,7 +4608,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -4620,7 +4620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="7642440"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4665,9 +4665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4677,7 +4677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15423840" y="7306920"/>
-          <a:ext cx="632160" cy="261720"/>
+          <a:ext cx="631800" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4730,9 +4730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4742,7 +4742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12292560" y="7935480"/>
-          <a:ext cx="594720" cy="262440"/>
+          <a:ext cx="594360" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4795,9 +4795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4807,7 +4807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="4971960"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -4873,13 +4873,13 @@
       <xdr:col>45</xdr:col>
       <xdr:colOff>30240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
+      <xdr:colOff>55440</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4888,8 +4888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10374120" y="6435720"/>
-          <a:ext cx="1175040" cy="1120320"/>
+          <a:off x="10374120" y="6435000"/>
+          <a:ext cx="1174680" cy="1119960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4934,9 +4934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4946,7 +4946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19413360" y="1398240"/>
-          <a:ext cx="384840" cy="397440"/>
+          <a:ext cx="384480" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5010,7 +5010,7 @@
       <xdr:col>85</xdr:col>
       <xdr:colOff>101160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5020,7 +5020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19639440" y="711360"/>
-          <a:ext cx="360" cy="681480"/>
+          <a:ext cx="360" cy="681120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5065,9 +5065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5077,7 +5077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="232920" y="1398240"/>
-          <a:ext cx="383400" cy="397440"/>
+          <a:ext cx="383040" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5139,7 +5139,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -5151,7 +5151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="653760" y="1641600"/>
-          <a:ext cx="1180800" cy="360"/>
+          <a:ext cx="1180440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5196,9 +5196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5208,7 +5208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="9772560"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -5278,9 +5278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5290,7 +5290,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="9772560"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5343,9 +5343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5355,7 +5355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="12002760"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5408,9 +5408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>98</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5420,7 +5420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16550640" y="9772560"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5502,7 +5502,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -5514,7 +5514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="10043640"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5559,7 +5559,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -5571,7 +5571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="10043640"/>
-          <a:ext cx="1173600" cy="360"/>
+          <a:ext cx="1173240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5616,9 +5616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5628,7 +5628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="13201560"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -5718,9 +5718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5730,7 +5730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="13201560"/>
-          <a:ext cx="6171480" cy="534960"/>
+          <a:ext cx="6171120" cy="534600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5783,7 +5783,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -5795,7 +5795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="13472640"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5840,9 +5840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>55800</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5852,7 +5852,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="17730000" y="8836560"/>
-          <a:ext cx="1175400" cy="2321640"/>
+          <a:ext cx="1175040" cy="2321280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5897,9 +5897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>157680</xdr:colOff>
+      <xdr:colOff>157320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5909,7 +5909,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16552440" y="7400160"/>
-          <a:ext cx="385560" cy="395280"/>
+          <a:ext cx="385200" cy="394920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5971,7 +5971,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -5983,7 +5983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="7642440"/>
-          <a:ext cx="1173600" cy="360"/>
+          <a:ext cx="1173240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6028,9 +6028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>30240</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6040,7 +6040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12057480" y="4998600"/>
-          <a:ext cx="385560" cy="397440"/>
+          <a:ext cx="385200" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6104,7 +6104,7 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>101160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6114,7 +6114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12283560" y="5486400"/>
-          <a:ext cx="360" cy="681480"/>
+          <a:ext cx="360" cy="681120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6159,9 +6159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>158400</xdr:colOff>
+      <xdr:colOff>158040</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6171,7 +6171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16553160" y="13228200"/>
-          <a:ext cx="385560" cy="397440"/>
+          <a:ext cx="385200" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6233,7 +6233,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -6245,7 +6245,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="13472640"/>
-          <a:ext cx="1173960" cy="360"/>
+          <a:ext cx="1173600" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6290,9 +6290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>30240</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6302,7 +6302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12057480" y="10972800"/>
-          <a:ext cx="385560" cy="397440"/>
+          <a:ext cx="385200" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6366,7 +6366,7 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>101160</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6376,7 +6376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12283560" y="11460960"/>
-          <a:ext cx="360" cy="535320"/>
+          <a:ext cx="360" cy="534960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6421,9 +6421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6433,7 +6433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15423840" y="13134960"/>
-          <a:ext cx="632160" cy="263880"/>
+          <a:ext cx="631800" cy="263520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6486,9 +6486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6498,7 +6498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="14401800"/>
-          <a:ext cx="6171480" cy="535320"/>
+          <a:ext cx="6171120" cy="534960"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -6568,9 +6568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6580,7 +6580,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19413360" y="7400160"/>
-          <a:ext cx="384840" cy="395280"/>
+          <a:ext cx="384480" cy="394920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6644,7 +6644,7 @@
       <xdr:col>85</xdr:col>
       <xdr:colOff>101160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6654,7 +6654,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19639440" y="7885800"/>
-          <a:ext cx="360" cy="681480"/>
+          <a:ext cx="360" cy="681120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6699,9 +6699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6711,7 +6711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="14401800"/>
-          <a:ext cx="6171480" cy="535320"/>
+          <a:ext cx="6171120" cy="534960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6764,9 +6764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6776,7 +6776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="13741560"/>
-          <a:ext cx="10439280" cy="925200"/>
+          <a:ext cx="10438920" cy="924840"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -6811,9 +6811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6823,7 +6823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12283200" y="13754160"/>
-          <a:ext cx="594720" cy="263160"/>
+          <a:ext cx="594360" cy="262800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6876,7 +6876,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -6888,7 +6888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="14671800"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6933,9 +6933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>158400</xdr:colOff>
+      <xdr:colOff>158040</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6945,7 +6945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16553160" y="14428440"/>
-          <a:ext cx="385560" cy="397440"/>
+          <a:ext cx="385200" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7007,7 +7007,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -7019,7 +7019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="14671800"/>
-          <a:ext cx="1173960" cy="360"/>
+          <a:ext cx="1173600" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7064,9 +7064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7076,7 +7076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="15669720"/>
-          <a:ext cx="6171480" cy="534240"/>
+          <a:ext cx="6171120" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -7166,9 +7166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7178,7 +7178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="15669720"/>
-          <a:ext cx="6171480" cy="534240"/>
+          <a:ext cx="6171120" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7231,7 +7231,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
@@ -7243,7 +7243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="15938640"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7288,9 +7288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>158400</xdr:colOff>
+      <xdr:colOff>158040</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7300,7 +7300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16553160" y="15698520"/>
-          <a:ext cx="385560" cy="395280"/>
+          <a:ext cx="385200" cy="394920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7362,7 +7362,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
@@ -7374,7 +7374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="15938640"/>
-          <a:ext cx="1173960" cy="360"/>
+          <a:ext cx="1173600" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7419,9 +7419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7431,7 +7431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15423840" y="15603120"/>
-          <a:ext cx="632160" cy="261720"/>
+          <a:ext cx="631800" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7484,9 +7484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7496,7 +7496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="16869960"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -7566,9 +7566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7578,7 +7578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9194760" y="16869960"/>
-          <a:ext cx="6171480" cy="533520"/>
+          <a:ext cx="6171120" cy="533160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7631,9 +7631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7643,7 +7643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838880" y="16209720"/>
-          <a:ext cx="10439280" cy="924480"/>
+          <a:ext cx="10438920" cy="924120"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -7678,9 +7678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7690,7 +7690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12283200" y="16222320"/>
-          <a:ext cx="594720" cy="261720"/>
+          <a:ext cx="594360" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7743,7 +7743,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
@@ -7755,7 +7755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8016120" y="17139600"/>
-          <a:ext cx="1174320" cy="360"/>
+          <a:ext cx="1173960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7800,9 +7800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>158400</xdr:colOff>
+      <xdr:colOff>158040</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7812,7 +7812,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16553160" y="16896600"/>
-          <a:ext cx="385560" cy="395280"/>
+          <a:ext cx="385200" cy="394920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7874,7 +7874,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
@@ -7886,7 +7886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15372000" y="17139600"/>
-          <a:ext cx="1173960" cy="360"/>
+          <a:ext cx="1173600" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7931,9 +7931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7943,7 +7943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="653760" y="1641600"/>
-          <a:ext cx="1180800" cy="1195200"/>
+          <a:ext cx="1180440" cy="1194840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7988,9 +7988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8000,7 +8000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19413360" y="4998600"/>
-          <a:ext cx="384840" cy="397440"/>
+          <a:ext cx="384480" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8064,7 +8064,7 @@
       <xdr:col>85</xdr:col>
       <xdr:colOff>101160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8074,7 +8074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19639440" y="4311720"/>
-          <a:ext cx="360" cy="681480"/>
+          <a:ext cx="360" cy="681120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8119,9 +8119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8131,7 +8131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19413360" y="10972800"/>
-          <a:ext cx="384840" cy="397440"/>
+          <a:ext cx="384480" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8195,7 +8195,7 @@
       <xdr:col>85</xdr:col>
       <xdr:colOff>101160</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8205,7 +8205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19639440" y="10312560"/>
-          <a:ext cx="360" cy="655920"/>
+          <a:ext cx="360" cy="655560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8250,9 +8250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8262,7 +8262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="232920" y="7400160"/>
-          <a:ext cx="383400" cy="395280"/>
+          <a:ext cx="383040" cy="394920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8324,7 +8324,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
@@ -8336,7 +8336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="653760" y="7642440"/>
-          <a:ext cx="1180800" cy="360"/>
+          <a:ext cx="1180440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8381,9 +8381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8393,7 +8393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="653760" y="1641600"/>
-          <a:ext cx="1180800" cy="2395800"/>
+          <a:ext cx="1180440" cy="2395440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8438,9 +8438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8450,7 +8450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="653760" y="1641600"/>
-          <a:ext cx="1180800" cy="3596040"/>
+          <a:ext cx="1180440" cy="3595680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8495,9 +8495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8507,7 +8507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="232920" y="9799200"/>
-          <a:ext cx="383400" cy="397440"/>
+          <a:ext cx="383040" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8569,7 +8569,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -8581,7 +8581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="653760" y="10043640"/>
-          <a:ext cx="1180800" cy="360"/>
+          <a:ext cx="1180440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8626,9 +8626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8638,7 +8638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="232920" y="13228200"/>
-          <a:ext cx="383400" cy="397440"/>
+          <a:ext cx="383040" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8700,7 +8700,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
@@ -8712,7 +8712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="653760" y="13472640"/>
-          <a:ext cx="1180800" cy="360"/>
+          <a:ext cx="1180440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8757,9 +8757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8769,7 +8769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="232920" y="15698520"/>
-          <a:ext cx="383400" cy="395280"/>
+          <a:ext cx="383040" cy="394920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8827,13 +8827,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>35280</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8842,8 +8842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3023280" y="15932160"/>
-          <a:ext cx="1180080" cy="360"/>
+          <a:off x="3023280" y="15931440"/>
+          <a:ext cx="1179720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8888,9 +8888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>55800</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8900,7 +8900,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="17730000" y="14493600"/>
-          <a:ext cx="1175400" cy="2149560"/>
+          <a:ext cx="1175040" cy="2149200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15366,7 +15366,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26559,10 +26559,6 @@
       <formula1>"DB接続あり,DB接続なし"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E149" type="list">
-      <formula1>型</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F15:F149" type="list">
       <formula1>項目型</formula1>
       <formula2>0</formula2>
@@ -26581,6 +26577,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AC15:AC149" type="list">
       <formula1>桁数チェックパターン</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E149" type="list">
+      <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -32067,10 +32067,6 @@
       <formula1>"DB接続あり,DB接続なし"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E149" type="list">
-      <formula1>型</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F15:F149" type="list">
       <formula1>項目型</formula1>
       <formula2>0</formula2>
@@ -32089,6 +32085,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AC15:AC149" type="list">
       <formula1>桁数チェックパターン</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E149" type="list">
+      <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -36723,10 +36723,6 @@
       <formula1>"DB接続あり,DB接続なし"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E125" type="list">
-      <formula1>型</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F15:F125" type="list">
       <formula1>項目型</formula1>
       <formula2>0</formula2>
@@ -36745,6 +36741,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AC15:AC125" type="list">
       <formula1>桁数チェックパターン</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E125" type="list">
+      <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -42677,10 +42677,6 @@
       <formula1>"DB接続あり,DB接続なし"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E149" type="list">
-      <formula1>型</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F15:F149" type="list">
       <formula1>項目型</formula1>
       <formula2>0</formula2>
@@ -42699,6 +42695,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AC15:AC149" type="list">
       <formula1>桁数チェックパターン</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E15:E149" type="list">
+      <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -45840,7 +45840,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.5"/>
